--- a/Interface/dataconfig/interface.xlsx
+++ b/Interface/dataconfig/interface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7590"/>
+    <workbookView windowWidth="20130" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -57,7 +57,7 @@
     <t>登入接口请求</t>
   </si>
   <si>
-    <t>http://www.baidu.com</t>
+    <t>https://gateway-test.53zaixian.com/zhushou-bs-web/home/index</t>
   </si>
   <si>
     <t>yes</t>
@@ -66,10 +66,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>login</t>
+    <t>jiami</t>
   </si>
 </sst>
 </file>
@@ -107,7 +104,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,14 +126,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,30 +164,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,24 +210,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,19 +248,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,97 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,61 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,30 +439,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,6 +453,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,16 +517,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,17 +539,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,16 +559,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,115 +577,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,16 +1050,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="66.625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="9" max="9" width="16.75" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
   </cols>
@@ -1122,28 +1120,15 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://www.baidu.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://gateway-test.53zaixian.com/zhushou-bs-web/home/index" tooltip="https://gateway-test.53zaixian.com/zhushou-bs-web/home/index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
